--- a/Client/X-MACHINA/Import/XL/Phero/PheroStat.xlsx
+++ b/Client/X-MACHINA/Import/XL/Phero/PheroStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DirectX12_Project\Client\X-MACHINA\Import\XL\Phero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F8F761-4D6E-486E-9BF8-43DAE7068168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7CD31-565C-4BDA-AF1B-A71F4C9DA89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4905" windowWidth="28800" windowHeight="15435" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
+    <workbookView xWindow="38280" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{06281053-F3D5-4E77-9DAD-CE711606AC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,7 +498,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -520,7 +520,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
